--- a/Project-web/web/template/ordersetting_template.xlsx
+++ b/Project-web/web/template/ordersetting_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="5532"/>
   </bookViews>
   <sheets>
     <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,20 +413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,71 +434,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44129</v>
+        <v>44221</v>
       </c>
       <c r="B2" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44130</v>
+        <v>44222</v>
       </c>
       <c r="B3" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44131</v>
+        <v>44223</v>
       </c>
       <c r="B4" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44132</v>
+        <v>44224</v>
       </c>
       <c r="B5" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44133</v>
+        <v>44225</v>
       </c>
       <c r="B6" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44134</v>
+        <v>44226</v>
       </c>
       <c r="B7" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44135</v>
+        <v>44227</v>
       </c>
       <c r="B8" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B9" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44137</v>
       </c>
@@ -504,7 +506,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44138</v>
       </c>
@@ -512,7 +514,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44139</v>
       </c>
@@ -520,7 +522,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44140</v>
       </c>
@@ -528,7 +530,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44141</v>
       </c>
@@ -536,7 +538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44142</v>
       </c>
@@ -544,7 +546,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44143</v>
       </c>
@@ -552,7 +554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44144</v>
       </c>
@@ -560,7 +562,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44145</v>
       </c>
@@ -568,7 +570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44146</v>
       </c>
@@ -576,7 +578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44147</v>
       </c>
@@ -584,7 +586,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44148</v>
       </c>
